--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -493,158 +493,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    min_samples_leaf=3,
-                                                                    min_samples_split=6,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=6,
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=3,
+                                                                    n_estimators=5,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6761904761904762</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8130238095238096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02263941009981263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5887619047619046</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06650037095434869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=2,
+                                                                    min_samples_leaf=6,
+                                                                    n_estimators=50,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 1 0 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8085714285714286</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02757051045080954</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5472380952380952</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05118580728890872</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=2,
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=5,
                                                                     n_estimators=10,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7438133874239351</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8600748521006747</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01786269894150407</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6849636437388092</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0528123681846328</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=1,
-                                                                    n_estimators=5,
-                                                                    random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.732665925101965</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 1, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8708661254646658</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02081848280486687</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6698794118517598</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0637743755329547</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=5,
-                                                                    n_estimators=5,
-                                                                    random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.7472153700189754</v>
+        <v>0.6</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 0 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8592403840468393</v>
+        <v>0.8514047619047619</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02722564833809022</v>
+        <v>0.02418291686109236</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6480094733797132</v>
+        <v>0.5278095238095237</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09498997756331744</v>
+        <v>0.07201148000967575</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,152 +493,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64541e20&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=6,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
                                                                     min_samples_leaf=6,
-                                                                    min_samples_split=3,
-                                                                    n_estimators=5,
+                                                                    min_samples_split=5,
+                                                                    n_estimators=50,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6761904761904762</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 6, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a645b3e80&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 1 1 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8130238095238096</v>
+        <v>0.8304701627486436</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02263941009981263</v>
+        <v>0.0252669046611366</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5887619047619046</v>
+        <v>0.6030138637733574</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06650037095434869</v>
+        <v>0.05573800871499385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a644d91c0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=2,
-                                                                    min_samples_leaf=6,
-                                                                    n_estimators=50,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=2,
+                                                                    max_features='log2',
+                                                                    n_estimators=5,
                                                                     random_state=42),
-                                   random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a640a7700&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 1 1 0 0 1 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8085714285714286</v>
+        <v>0.82562656641604</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02757051045080954</v>
+        <v>0.03050636376681012</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5472380952380952</v>
+        <v>0.5290726817042606</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05118580728890872</v>
+        <v>0.07318931965621309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', 'passthrough'),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a644d96a0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=2,
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=5,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=4,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=6,
+                                                                    n_estimators=5,
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64703730&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8410383597883597</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.02700882216048554</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5326719576719576</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.08326477738218679</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64786070&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    max_features='log2',
                                                                     n_estimators=10,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8514047619047619</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.02418291686109236</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5278095238095237</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07201148000967575</v>
+      <c r="B5" t="n">
+        <v>0.6476190476190475</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a647aa2b0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8368312757201646</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0280197677746477</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5370958259847147</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07499195173816516</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64212c10&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=3,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=5,
+                                                                    n_estimators=50,
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6458d400&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.836272780717225</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.02388775536368612</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5688418577307466</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06997861933585442</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,79 +493,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64541e20&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=5,
-                                                                    n_estimators=50,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=5,
+                                                                    n_estimators=10,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.6857843137254902</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a645b3e80&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4615384615384615</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 1 1 1 1 1 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8304701627486436</v>
+        <v>0.8557306653222801</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0252669046611366</v>
+        <v>0.01825980882888651</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6030138637733574</v>
+        <v>0.5819387602593484</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05573800871499385</v>
+        <v>0.1327745289272808</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a644d91c0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd8357f580&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=2,
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=3,
                                                                     max_features='log2',
-                                                                    n_estimators=5,
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=6,
+                                                                    n_estimators=10,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6571428571428571</v>
+        <v>0.7750549450549451</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a640a7700&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 2, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd836f8730&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -574,180 +575,125 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 0]</t>
+          <t>[0 1 1 1 1 0 1 1 1 1 0 0]</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>0.82562656641604</v>
+        <v>0.8549437629833487</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03050636376681012</v>
+        <v>0.01953913406196033</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5290726817042606</v>
+        <v>0.6825916787460905</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07318931965621309</v>
+        <v>0.07279029560403621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a644d96a0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd83507fa0&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=4,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=2,
-                                                                    min_samples_split=6,
-                                                                    n_estimators=5,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=4,
+                                                                    n_estimators=50,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.7464145658263306</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a64703730&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd8314f880&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 1]</t>
+          <t>[0 1 1 1 0 1 0 1 1 1 1 0]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8410383597883597</v>
+        <v>0.8431032845710873</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02700882216048554</v>
+        <v>0.01985057109554134</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5326719576719576</v>
+        <v>0.6747488738385797</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08326477738218679</v>
+        <v>0.09519613492372735</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64786070&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd835d9d60&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    max_features='log2',
-                                                                    n_estimators=10,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=3,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6476190476190475</v>
+        <v>0.7905508870214752</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a647aa2b0&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05750a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8368312757201646</v>
+        <v>0.852788015458429</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0280197677746477</v>
+        <v>0.02056665735032592</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5370958259847147</v>
+        <v>0.7058923783732607</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07499195173816516</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f3a64212c10&gt;),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=3,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=5,
-                                                                    n_estimators=50,
-                                                                    random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f3a6458d400&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 5, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.836272780717225</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.02388775536368612</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5688418577307466</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.06997861933585442</v>
+        <v>0.1011844034230341</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -545,7 +545,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd8357f580&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91243332b0&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
                                                                     max_depth=3,
@@ -562,7 +562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd836f8730&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91244191f0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -599,7 +599,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd83507fa0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f912432a0d0&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
                                                                     min_samples_leaf=6,
@@ -614,7 +614,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd8314f880&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91240600d0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -651,7 +651,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd835d9d60&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f9124371280&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=3,
                                                                     min_samples_split=4,
@@ -664,7 +664,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05750a0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9104579580&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,93 +451,128 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f32e50&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=5,
-                                                                    n_estimators=10,
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=3,
+                                                                    n_estimators=5,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   n_estimators=5, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6857843137254902</v>
+        <v>0.6605952380952381</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b9e34f0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
+        <v>0.8560317254239692</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5546045010545011</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7636363636363637</v>
       </c>
       <c r="G2" t="n">
+        <v>0.8037417504377987</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5377027777777778</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9246666666666666</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6169999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9545454545454546</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8557306653222801</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.01825980882888651</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5819387602593484</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1327745289272808</v>
       </c>
     </row>
     <row r="3">
@@ -545,155 +580,259 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91243332b0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f32430&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=5,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=2,
+                                                                    n_estimators=10,
+                                                                    random_state=42),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6807142857142858</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587227d30&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8577180403390539</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6131357087357088</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8208425553696169</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5678027777777778</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.903975</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6863999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd313a0&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
                                                                     max_depth=3,
                                                                     max_features='log2',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=6,
-                                                                    n_estimators=10,
+                                                                    min_samples_leaf=4,
+                                                                    n_estimators=5,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7750549450549451</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91244191f0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8549437629833487</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.01953913406196033</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6825916787460905</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.07279029560403621</v>
+      <c r="B4" t="n">
+        <v>0.6111904761904763</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58722a5b0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8481288199428404</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5233972194472195</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7346938775510203</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8462399697710937</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5107178571428571</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8544999999999997</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5601999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f912432a0d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bdeda90&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=5,
+                                                                    min_samples_leaf=2,
+                                                                    min_samples_split=3,
+                                                                    random_state=42),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7214285714285714</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fca7c42a370&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8520110962888009</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6083371128871129</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7942500058728923</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5438527777777779</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9344523809523809</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7206000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd8c820&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
+                                                                    max_depth=1,
+                                                                    max_features='log2',
                                                                     min_samples_leaf=6,
-                                                                    min_samples_split=4,
+                                                                    min_samples_split=3,
                                                                     n_estimators=50,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.7464145658263306</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91240600d0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B6" t="n">
+        <v>0.6866666666666666</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae07dd7c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.861486894932795</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6341252025752026</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8149762492193843</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.5587126984126984</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.9210681818181818</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7519999999999999</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.75</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8431032845710873</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.01985057109554134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6747488738385797</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.09519613492372735</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9124371280&gt;),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=3,
-                                                                    min_samples_split=4,
-                                                                    random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7905508870214752</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9104579580&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 1 0 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.852788015458429</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02056665735032592</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7058923783732607</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1011844034230341</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -513,127 +513,125 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f32e50&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d125d60&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=5,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=2,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    min_samples_leaf=6,
+                                                                    min_samples_split=4,
+                                                                    n_estimators=50,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7346503496503496</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9cbffe50&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8596862751308275</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6289766400266399</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8279833553004251</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5938186507936508</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9030212765957447</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6963333333333334</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9ce10100&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    min_samples_leaf=4,
                                                                     min_samples_split=3,
                                                                     n_estimators=5,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.6605952380952381</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58b9e34f0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8560317254239692</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5546045010545011</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7636363636363637</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.8037417504377987</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5377027777777778</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9246666666666666</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.6169999999999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd584f32430&gt;),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=5,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=2,
-                                                                    n_estimators=10,
-                                                                    random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6807142857142858</v>
+        <v>0.7145820845820847</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd587227d30&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9cc1f640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8577180403390539</v>
+        <v>0.8529936493980809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6131357087357088</v>
+        <v>0.5948121989121989</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8208425553696169</v>
+        <v>0.8298527208066143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5678027777777778</v>
+        <v>0.6410079365079366</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="J3" t="n">
-        <v>0.903975</v>
+        <v>0.8862765957446807</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6863999999999999</v>
+        <v>0.5873333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 0 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -643,192 +641,187 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d16a8e0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    max_features='log2',
+                                                                    min_samples_split=6,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7154778554778554</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa000e2940&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8369837145153045</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.612015712065712</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8219877255903448</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6155511904761904</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8584222222222222</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6389999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5263157894736842</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd313a0&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=3,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=4,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    min_samples_leaf=3,
+                                                                    min_samples_split=6,
+                                                                    n_estimators=50,
+                                                                    random_state=42),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7549999999999999</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8557925080881041</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6423128038628039</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8048609973343182</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5908388888888889</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9243877551020409</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7276666666666665</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d16a970&gt;),
+                ('model',
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=4,
+                                                                    min_samples_leaf=5,
                                                                     n_estimators=5,
                                                                     random_state=42),
                                    n_estimators=5, random_state=42))])</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.6111904761904763</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd58722a5b0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 3, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8481288199428404</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5233972194472195</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7346938775510203</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.8462399697710937</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5107178571428571</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7826086956521739</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8544999999999997</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5601999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1 1 0 1 1 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bdeda90&gt;),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=5,
-                                                                    min_samples_leaf=2,
-                                                                    min_samples_split=3,
-                                                                    random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7214285714285714</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fca7c42a370&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 2, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 5, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8520110962888009</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6083371128871129</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7942500058728923</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.5438527777777779</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9344523809523809</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.7206000000000001</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 1 0 1 1 1 1 0 1 1 1 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd8c820&gt;),
-                ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(class_weight='balanced',
-                                                                    max_depth=1,
-                                                                    max_features='log2',
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=3,
-                                                                    n_estimators=50,
-                                                                    random_state=42),
-                                   random_state=42))])</t>
-        </is>
-      </c>
       <c r="B6" t="n">
-        <v>0.6866666666666666</v>
+        <v>0.7653479853479854</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae07dd7c0&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faaa4078b50&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.861486894932795</v>
+        <v>0.8584984482469724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6341252025752026</v>
+        <v>0.6479012931512932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6818181818181818</v>
+        <v>0.6249999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8149762492193843</v>
+        <v>0.8397473862684248</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5587126984126984</v>
+        <v>0.6132968253968254</v>
       </c>
       <c r="I6" t="n">
-        <v>0.625</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9210681818181818</v>
+        <v>0.8883846153846154</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7519999999999999</v>
+        <v>0.7118333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.75</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/BaggingClassifier_RandomForestClassifier.xlsx
+++ b/results/BaggingClassifier_RandomForestClassifier.xlsx
@@ -515,47 +515,47 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d125d60&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd21fab4be0&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    min_samples_leaf=6,
-                                                                    min_samples_split=4,
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=9,
                                                                     n_estimators=50,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7346503496503496</v>
+        <v>0.7452564102564103</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9cbffe50&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 6, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c47c220&gt;, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 9, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8596862751308275</v>
+        <v>0.7792411300436752</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6289766400266399</v>
+        <v>0.6426895659895661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8279833553004251</v>
+        <v>0.745020423207164</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5938186507936508</v>
+        <v>0.6079535714285714</v>
       </c>
       <c r="I2" t="n">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9030212765957447</v>
+        <v>0.8370000000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6963333333333334</v>
+        <v>0.7181666666666667</v>
       </c>
       <c r="L2" t="n">
         <v>0.9375</v>
@@ -567,7 +567,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 0 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 1 1 1 1 1 0 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,49 +577,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9ce10100&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c7112b0&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    min_samples_leaf=4,
-                                                                    min_samples_split=3,
-                                                                    n_estimators=5,
+                                                                    min_samples_leaf=11,
+                                                                    min_samples_split=7,
+                                                                    n_estimators=10,
                                                                     random_state=42),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7145820845820847</v>
+        <v>0.7402930402930403</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9cc1f640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c4fbd90&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 7, 'model__estimator__min_samples_leaf': 11, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8529936493980809</v>
+        <v>0.7800628670967936</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5948121989121989</v>
+        <v>0.616917882117882</v>
       </c>
       <c r="F3" t="n">
         <v>0.8205128205128205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8298527208066143</v>
+        <v>0.7497937816197513</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6410079365079366</v>
+        <v>0.6661603174603176</v>
       </c>
       <c r="I3" t="n">
         <v>0.6956521739130435</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8862765957446807</v>
+        <v>0.8310425531914896</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5873333333333333</v>
+        <v>0.6243333333333334</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -641,51 +641,53 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d16a8e0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
                                                                     max_features='log2',
-                                                                    min_samples_split=6,
+                                                                    min_samples_leaf=10,
+                                                                    n_estimators=50,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7154778554778554</v>
+        <v>0.7256010656010656</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa000e2940&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 1, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 10, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8369837145153045</v>
+        <v>0.759687568549166</v>
       </c>
       <c r="E4" t="n">
-        <v>0.612015712065712</v>
+        <v>0.6224345876345875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6451612903225806</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8219877255903448</v>
+        <v>0.7427976912452163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6155511904761904</v>
+        <v>0.6294428571428571</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8584222222222222</v>
+        <v>0.7896000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6389999999999999</v>
+        <v>0.6512</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -694,7 +696,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 0 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -704,49 +706,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c54a280&gt;),
                 ('model',
                  BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
-                                                                    min_samples_leaf=3,
-                                                                    min_samples_split=6,
-                                                                    n_estimators=50,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=4,
+                                                                    min_samples_split=4,
                                                                     random_state=42),
                                    random_state=42))])</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7549999999999999</v>
+        <v>0.7578571428571428</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': RobustScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 50, 'model__estimator__min_samples_split': 6, 'model__estimator__min_samples_leaf': 3, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c0d9400&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__n_estimators': 100, 'model__estimator__min_samples_split': 4, 'model__estimator__min_samples_leaf': 4, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.8557925080881041</v>
+        <v>0.7759532565515141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6423128038628039</v>
+        <v>0.6526460539460538</v>
       </c>
       <c r="F5" t="n">
         <v>0.7567567567567568</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8048609973343182</v>
+        <v>0.713691858899535</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5908388888888889</v>
+        <v>0.6084265873015873</v>
       </c>
       <c r="I5" t="n">
         <v>0.6086956521739131</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9243877551020409</v>
+        <v>0.8740816326530613</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7276666666666665</v>
+        <v>0.7476666666666668</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
@@ -758,7 +760,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -768,51 +770,53 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa9d16a970&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd15c54a100&gt;),
                 ('model',
-                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=4,
-                                                                    min_samples_leaf=5,
-                                                                    n_estimators=5,
+                 BaggingClassifier(estimator=RandomForestClassifier(max_depth=1,
+                                                                    max_features='log2',
+                                                                    min_samples_leaf=9,
+                                                                    min_samples_split=3,
+                                                                    n_estimators=10,
                                                                     random_state=42),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7653479853479854</v>
+        <v>0.7400183150183149</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faaa4078b50&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__n_estimators': 5, 'model__estimator__min_samples_split': 2, 'model__estimator__min_samples_leaf': 5, 'model__estimator__max_features': 'sqrt', 'model__estimator__max_depth': 4, 'model__estimator__class_weight': None}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd15c50a6a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__n_estimators': 10, 'model__estimator__min_samples_split': 3, 'model__estimator__min_samples_leaf': 9, 'model__estimator__max_features': 'log2', 'model__estimator__max_depth': 1, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8584984482469724</v>
+        <v>0.7981627198965039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6479012931512932</v>
+        <v>0.6560632423132422</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6249999999999999</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8397473862684248</v>
+        <v>0.7747333667104463</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6132968253968254</v>
+        <v>0.6223992063492063</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8883846153846154</v>
+        <v>0.845153846153846</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7118333333333333</v>
+        <v>0.7278333333333334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -821,7 +825,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
